--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H2">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J2">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N2">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q2">
-        <v>43.24919913482778</v>
+        <v>283.0085535238933</v>
       </c>
       <c r="R2">
-        <v>43.24919913482778</v>
+        <v>2547.07698171504</v>
       </c>
       <c r="S2">
-        <v>0.009831398297101241</v>
+        <v>0.04732430624774037</v>
       </c>
       <c r="T2">
-        <v>0.009831398297101241</v>
+        <v>0.04732430624774037</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H3">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J3">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N3">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q3">
-        <v>252.9585088690245</v>
+        <v>282.6892073313066</v>
       </c>
       <c r="R3">
-        <v>252.9585088690245</v>
+        <v>2544.20286598176</v>
       </c>
       <c r="S3">
-        <v>0.05750247179327566</v>
+        <v>0.04727090561080258</v>
       </c>
       <c r="T3">
-        <v>0.05750247179327566</v>
+        <v>0.04727090561080258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H4">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J4">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N4">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q4">
-        <v>373.7824091689928</v>
+        <v>463.8364079810934</v>
       </c>
       <c r="R4">
-        <v>373.7824091689928</v>
+        <v>4174.527671829841</v>
       </c>
       <c r="S4">
-        <v>0.08496813384993258</v>
+        <v>0.07756209466755887</v>
       </c>
       <c r="T4">
-        <v>0.08496813384993258</v>
+        <v>0.07756209466755887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.210890225460041</v>
+        <v>10.27784</v>
       </c>
       <c r="H5">
-        <v>9.210890225460041</v>
+        <v>30.83352</v>
       </c>
       <c r="I5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="J5">
-        <v>0.2220156004549328</v>
+        <v>0.230301226653591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N5">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q5">
-        <v>306.6763370735331</v>
+        <v>347.71194838752</v>
       </c>
       <c r="R5">
-        <v>306.6763370735331</v>
+        <v>3129.40753548768</v>
       </c>
       <c r="S5">
-        <v>0.0697135965146233</v>
+        <v>0.05814392012748917</v>
       </c>
       <c r="T5">
-        <v>0.0697135965146233</v>
+        <v>0.05814392012748916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H6">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I6">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J6">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N6">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q6">
-        <v>68.16425590398434</v>
+        <v>401.1450503372848</v>
       </c>
       <c r="R6">
-        <v>68.16425590398434</v>
+        <v>3610.305453035563</v>
       </c>
       <c r="S6">
-        <v>0.0154950834425497</v>
+        <v>0.06707893092116086</v>
       </c>
       <c r="T6">
-        <v>0.0154950834425497</v>
+        <v>0.06707893092116086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H7">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I7">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J7">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N7">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q7">
-        <v>398.6831866616746</v>
+        <v>400.6923991968684</v>
       </c>
       <c r="R7">
-        <v>398.6831866616746</v>
+        <v>3606.231592771816</v>
       </c>
       <c r="S7">
-        <v>0.09062857303343894</v>
+        <v>0.06700323921175588</v>
       </c>
       <c r="T7">
-        <v>0.09062857303343894</v>
+        <v>0.06700323921175588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H8">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I8">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J8">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N8">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q8">
-        <v>589.111481846737</v>
+        <v>657.4560270742215</v>
       </c>
       <c r="R8">
-        <v>589.111481846737</v>
+        <v>5917.104243667995</v>
       </c>
       <c r="S8">
-        <v>0.1339166906044921</v>
+        <v>0.1099389046100204</v>
       </c>
       <c r="T8">
-        <v>0.1339166906044921</v>
+        <v>0.1099389046100204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.517112246968</v>
+        <v>14.56812733333333</v>
       </c>
       <c r="H9">
-        <v>14.517112246968</v>
+        <v>43.704382</v>
       </c>
       <c r="I9">
-        <v>0.3499146459778034</v>
+        <v>0.3264360600001921</v>
       </c>
       <c r="J9">
-        <v>0.3499146459778034</v>
+        <v>0.326436060000192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N9">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q9">
-        <v>483.3468535407624</v>
+        <v>492.857637347032</v>
       </c>
       <c r="R9">
-        <v>483.3468535407624</v>
+        <v>4435.718736123287</v>
       </c>
       <c r="S9">
-        <v>0.1098742988973226</v>
+        <v>0.08241498525725494</v>
       </c>
       <c r="T9">
-        <v>0.1098742988973226</v>
+        <v>0.08241498525725492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H10">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J10">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N10">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q10">
-        <v>10.84445553055505</v>
+        <v>72.97364417135799</v>
       </c>
       <c r="R10">
-        <v>10.84445553055505</v>
+        <v>656.762797542222</v>
       </c>
       <c r="S10">
-        <v>0.002465159211473885</v>
+        <v>0.01220255374538502</v>
       </c>
       <c r="T10">
-        <v>0.002465159211473885</v>
+        <v>0.01220255374538502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H11">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J11">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N11">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q11">
-        <v>63.42770167729202</v>
+        <v>72.89130088125199</v>
       </c>
       <c r="R11">
-        <v>63.42770167729202</v>
+        <v>656.021707931268</v>
       </c>
       <c r="S11">
-        <v>0.01441837099260907</v>
+        <v>0.01218878441216204</v>
       </c>
       <c r="T11">
-        <v>0.01441837099260907</v>
+        <v>0.01218878441216204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H12">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J12">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N12">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q12">
-        <v>93.72350923078005</v>
+        <v>119.600035293193</v>
       </c>
       <c r="R12">
-        <v>93.72350923078005</v>
+        <v>1076.400317638737</v>
       </c>
       <c r="S12">
-        <v>0.02130520720574061</v>
+        <v>0.01999935559183646</v>
       </c>
       <c r="T12">
-        <v>0.02130520720574061</v>
+        <v>0.01999935559183646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.3095708462816</v>
+        <v>2.650137</v>
       </c>
       <c r="H13">
-        <v>2.3095708462816</v>
+        <v>7.950411</v>
       </c>
       <c r="I13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649115</v>
       </c>
       <c r="J13">
-        <v>0.05566896854476481</v>
+        <v>0.05938308067649114</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N13">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q13">
-        <v>76.89709789306333</v>
+        <v>89.65738907823601</v>
       </c>
       <c r="R13">
-        <v>76.89709789306333</v>
+        <v>806.916501704124</v>
       </c>
       <c r="S13">
-        <v>0.01748023113494124</v>
+        <v>0.01499238692710762</v>
       </c>
       <c r="T13">
-        <v>0.01748023113494124</v>
+        <v>0.01499238692710762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H14">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J14">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N14">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q14">
-        <v>72.54461252453127</v>
+        <v>471.7353057461388</v>
       </c>
       <c r="R14">
-        <v>72.54461252453127</v>
+        <v>4245.61775171525</v>
       </c>
       <c r="S14">
-        <v>0.01649082513214001</v>
+        <v>0.07888293763219048</v>
       </c>
       <c r="T14">
-        <v>0.01649082513214001</v>
+        <v>0.07888293763219048</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H15">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J15">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N15">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q15">
-        <v>424.3032790845149</v>
+        <v>471.2030007259444</v>
       </c>
       <c r="R15">
-        <v>424.3032790845149</v>
+        <v>4240.8270065335</v>
       </c>
       <c r="S15">
-        <v>0.09645252672636763</v>
+        <v>0.07879392630910775</v>
       </c>
       <c r="T15">
-        <v>0.09645252672636763</v>
+        <v>0.07879392630910775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H16">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J16">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N16">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q16">
-        <v>626.9688360498324</v>
+        <v>773.1498112359307</v>
       </c>
       <c r="R16">
-        <v>626.9688360498324</v>
+        <v>6958.348301123376</v>
       </c>
       <c r="S16">
-        <v>0.1425224159147985</v>
+        <v>0.1292850621888458</v>
       </c>
       <c r="T16">
-        <v>0.1425224159147985</v>
+        <v>0.1292850621888458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.4500077638178</v>
+        <v>17.13170833333333</v>
       </c>
       <c r="H17">
-        <v>15.4500077638178</v>
+        <v>51.395125</v>
       </c>
       <c r="I17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="J17">
-        <v>0.372400785022499</v>
+        <v>0.3838796326697257</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N17">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q17">
-        <v>514.4075841516874</v>
+        <v>579.5867306545</v>
       </c>
       <c r="R17">
-        <v>514.4075841516874</v>
+        <v>5216.2805758905</v>
       </c>
       <c r="S17">
-        <v>0.1169350172491928</v>
+        <v>0.09691770653958165</v>
       </c>
       <c r="T17">
-        <v>0.1169350172491928</v>
+        <v>0.09691770653958164</v>
       </c>
     </row>
   </sheetData>
